--- a/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Table9.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/Table9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb95/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7B5A7E-3BE9-6242-B051-2D4F7526DB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8631DBBE-28BF-AE47-A459-5E006FEFB59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Region of home port</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>100 feet and over</t>
-  </si>
-  <si>
-    <t>—</t>
   </si>
   <si>
     <t>Total number of bost for each region region</t>
@@ -98,7 +95,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -179,32 +176,32 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,10 +524,10 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="8" width="14.5" customWidth="1"/>
   </cols>
@@ -558,15 +555,15 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="35" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="8">
         <v>90</v>
@@ -592,9 +589,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10">
         <v>75</v>
@@ -618,9 +615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10">
         <v>43</v>
@@ -646,9 +643,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8">
         <v>106</v>
@@ -674,9 +671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8">
         <v>39</v>
@@ -700,9 +697,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="12">
         <v>343</v>
@@ -730,9 +727,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="10">
         <v>124</v>
@@ -762,7 +759,7 @@
     </row>
     <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="10">
@@ -788,15 +785,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="13">
@@ -812,7 +807,7 @@
     </row>
     <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="13">
         <v>820</v>
@@ -838,7 +833,7 @@
     </row>
     <row r="12" spans="1:9" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="17">
         <f>SUM(B2:B10)-B11</f>
